--- a/week1/第一周进度_乐辰阳.xlsx
+++ b/week1/第一周进度_乐辰阳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\software-engineering-project\week1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394AA77A-CB0C-48F1-B36B-AE9FDC56B995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F58D4-8D3A-4CDB-8A6D-9EC04A93AB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18458" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>主要工作</t>
   </si>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>乐辰阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐辰阳。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +413,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -476,7 +480,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
